--- a/dados/previsoes/todas_rodadas-naotratado.xlsx
+++ b/dados/previsoes/todas_rodadas-naotratado.xlsx
@@ -16413,24 +16413,38 @@
           <t>Grêmio</t>
         </is>
       </c>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr"/>
+      <c r="F292" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>1–2</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>0.9</v>
+      </c>
       <c r="I292" t="inlineStr">
         <is>
           <t>Ath Paranaense</t>
         </is>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>24679</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>Arena do Grêmio</t>
         </is>
       </c>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>Luiz Flávio de Oliveira</t>
+        </is>
+      </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N292" t="inlineStr"/>
@@ -16459,24 +16473,38 @@
           <t>Coritiba</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr"/>
+      <c r="F293" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="H293" t="n">
+        <v>0.4</v>
+      </c>
       <c r="I293" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>20873</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>Estádio Major Antônio Couto Pereira</t>
         </is>
       </c>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>Denis da Silva Ribeiro Serafim</t>
+        </is>
+      </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N293" t="inlineStr"/>
@@ -16505,24 +16533,38 @@
           <t>América (MG)</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr"/>
+      <c r="F294" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>1–2</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I294" t="inlineStr">
         <is>
           <t>Botafogo (RJ)</t>
         </is>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6230</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>Estádio Raimundo Sampaio</t>
         </is>
       </c>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>Anderson Daronco</t>
+        </is>
+      </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N294" t="inlineStr"/>
@@ -16551,24 +16593,38 @@
           <t>Cruzeiro</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr"/>
+      <c r="F295" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>0–2</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>1.9</v>
+      </c>
       <c r="I295" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>37073</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>Estádio Raimundo Sampaio</t>
         </is>
       </c>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>Rafael Rodrigo Klein</t>
+        </is>
+      </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N295" t="inlineStr"/>
@@ -16597,24 +16653,38 @@
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr"/>
+      <c r="F296" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>0–2</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
       <c r="I296" t="inlineStr">
         <is>
           <t>Atlético Mineiro</t>
         </is>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>27718</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>Bruno Arleu</t>
+        </is>
+      </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N296" t="inlineStr"/>
@@ -16643,24 +16713,38 @@
           <t>Santos</t>
         </is>
       </c>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr"/>
+      <c r="F297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>1–3</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>2.4</v>
+      </c>
       <c r="I297" t="inlineStr">
         <is>
           <t>Bragantino</t>
         </is>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>12850</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>Estádio Urbano Caldeira</t>
         </is>
       </c>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>Raphael Claus</t>
+        </is>
+      </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N297" t="inlineStr"/>
@@ -16689,24 +16773,38 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr"/>
+      <c r="F298" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>1–0</t>
+        </is>
+      </c>
+      <c r="H298" t="n">
+        <v>0.6</v>
+      </c>
       <c r="I298" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>31385</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>Itaipava Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>Marcelo de Lima Henrique</t>
+        </is>
+      </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N298" t="inlineStr"/>
@@ -16735,24 +16833,38 @@
           <t>Vasco da Gama</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr"/>
+      <c r="F299" t="n">
+        <v>2</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>1–0</t>
+        </is>
+      </c>
+      <c r="H299" t="n">
+        <v>0.7</v>
+      </c>
       <c r="I299" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>20255</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>Estádio Club de Regatas Vasco da Gama</t>
         </is>
       </c>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>Leandro Pedro Vuaden</t>
+        </is>
+      </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N299" t="inlineStr"/>
@@ -16781,24 +16893,38 @@
           <t>Goiás</t>
         </is>
       </c>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr"/>
+      <c r="F300" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2–0</t>
+        </is>
+      </c>
+      <c r="H300" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I300" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>12685</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>Estádio de Hailé Pinheiro</t>
         </is>
       </c>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>Rodrigo José Pereira de Lima</t>
+        </is>
+      </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N300" t="inlineStr"/>
@@ -16827,24 +16953,38 @@
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr"/>
+      <c r="F301" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>3–3</t>
+        </is>
+      </c>
+      <c r="H301" t="n">
+        <v>2</v>
+      </c>
       <c r="I301" t="inlineStr">
         <is>
           <t>Corinthians</t>
         </is>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>35096</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>Estadio Jornalista Mário Filho</t>
         </is>
       </c>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>Paulo Zanovelli</t>
+        </is>
+      </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N301" t="inlineStr"/>
